--- a/convertSincal/Inputs12bc_1.xlsx
+++ b/convertSincal/Inputs12bc_1.xlsx
@@ -70,7 +70,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -107,6 +107,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -810,8 +813,8 @@
       <c r="G3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="3" t="n">
-        <v>1</v>
+      <c r="I3" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="J3" s="13" t="n">
         <v>3</v>
@@ -846,6 +849,9 @@
       <c r="G4" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="I4" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="N4" s="1" t="n"/>
       <c r="O4" s="1" t="n"/>
     </row>
@@ -870,6 +876,9 @@
       <c r="G5" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="I5" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="N5" s="1" t="n"/>
       <c r="O5" s="1" t="n"/>
     </row>
@@ -894,6 +903,9 @@
       <c r="G6" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="I6" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="N6" s="1" t="n"/>
       <c r="O6" s="1" t="n"/>
     </row>
@@ -918,7 +930,9 @@
       <c r="G7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="n"/>
+      <c r="I7" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="N7" s="1" t="n"/>
       <c r="O7" s="1" t="n"/>
     </row>
@@ -943,7 +957,9 @@
       <c r="G8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="n"/>
+      <c r="I8" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="n"/>
       <c r="N8" s="1" t="n"/>
@@ -970,6 +986,9 @@
       <c r="G9" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="I9" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="N9" s="1" t="n"/>
       <c r="O9" s="1" t="n"/>
     </row>
@@ -994,6 +1013,9 @@
       <c r="G10" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="I10" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="N10" s="1" t="n"/>
       <c r="O10" s="1" t="n"/>
     </row>
@@ -1018,6 +1040,9 @@
       <c r="G11" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="I11" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="J11" s="13" t="n"/>
       <c r="L11" s="13" t="n">
         <v>1</v>
@@ -1046,6 +1071,9 @@
       <c r="G12" s="13" t="n">
         <v>0.2</v>
       </c>
+      <c r="I12" s="13" t="n">
+        <v>0.2</v>
+      </c>
       <c r="J12" s="13" t="n"/>
       <c r="L12" s="13" t="n">
         <v>1</v>
@@ -1074,6 +1102,9 @@
       <c r="G13" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" s="13" t="n"/>
       <c r="L13" s="13" t="n">
         <v>1</v>
@@ -1102,6 +1133,9 @@
       <c r="G14" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="I14" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="13" t="n"/>
       <c r="L14" s="13" t="n">
         <v>1</v>
@@ -1130,6 +1164,9 @@
       <c r="G15" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="I15" s="13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="n">
@@ -1152,6 +1189,9 @@
       <c r="G16" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="I16" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="13" t="n"/>
       <c r="L16" s="13" t="n">
         <v>1</v>
@@ -1178,6 +1218,9 @@
       <c r="G17" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="I17" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" s="13" t="n"/>
       <c r="L17" s="13" t="n">
         <v>1</v>
@@ -1204,6 +1247,9 @@
       <c r="G18" s="13" t="n">
         <v>0.2</v>
       </c>
+      <c r="I18" s="13" t="n">
+        <v>0.2</v>
+      </c>
       <c r="J18" s="13" t="n"/>
       <c r="L18" s="13" t="n">
         <v>1</v>
@@ -1230,6 +1276,9 @@
       <c r="G19" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="I19" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" s="13" t="n"/>
       <c r="L19" s="13" t="n">
         <v>1</v>
@@ -1254,6 +1303,9 @@
         <v>0.444</v>
       </c>
       <c r="G20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="13" t="n"/>
@@ -1782,21 +1834,27 @@
         <v>0.405</v>
       </c>
     </row>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
     <row r="23">
       <c r="L23" s="4" t="n"/>
     </row>
     <row r="24" ht="28.2" customHeight="1">
       <c r="L24" s="10" t="n"/>
     </row>
+    <row r="25"/>
     <row r="26">
       <c r="G26" s="12" t="n"/>
     </row>
+    <row r="27"/>
     <row r="28">
       <c r="G28" s="12" t="n"/>
     </row>
     <row r="29">
       <c r="G29" s="12" t="n"/>
     </row>
+    <row r="30"/>
     <row r="31">
       <c r="G31" s="12" t="n"/>
     </row>

--- a/convertSincal/Inputs12bc_1.xlsx
+++ b/convertSincal/Inputs12bc_1.xlsx
@@ -798,7 +798,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" s="13" t="n">
@@ -834,7 +834,7 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" s="13" t="n">
@@ -861,7 +861,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>N3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C5" s="13" t="n">
@@ -888,7 +888,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C6" s="13" t="n">
@@ -915,7 +915,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>N5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C7" s="13" t="n">
@@ -942,7 +942,7 @@
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>N6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C8" s="13" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>N7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C9" s="13" t="n">
@@ -998,7 +998,7 @@
       </c>
       <c r="B10" s="13" t="inlineStr">
         <is>
-          <t>N9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" s="13" t="n">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B11" s="13" t="inlineStr">
         <is>
-          <t>N10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" s="13" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B12" s="13" t="inlineStr">
         <is>
-          <t>N11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" s="13" t="n">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B13" s="13" t="inlineStr">
         <is>
-          <t>N12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" s="13" t="n">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B14" s="13" t="inlineStr">
         <is>
-          <t>N13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C14" s="13" t="n">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B15" s="13" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C15" s="13" t="n">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B16" s="13" t="inlineStr">
         <is>
-          <t>N15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C16" s="13" t="n">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B17" s="13" t="inlineStr">
         <is>
-          <t>N16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C17" s="13" t="n">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B18" s="13" t="inlineStr">
         <is>
-          <t>N17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C18" s="13" t="n">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B19" s="13" t="inlineStr">
         <is>
-          <t>N19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C19" s="13" t="n">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="B20" s="13" t="inlineStr">
         <is>
-          <t>N21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C20" s="13" t="n">
